--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mardeev\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B3D166-0376-4D6E-920D-9B63BD0A7496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BBC62B-5D99-417A-96F0-BB130EE12480}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="540" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Посыл / Заповедь</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>19:0-19:5</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX19hfUG5rdwdPH5pcQRmqiUQspKkzM/Oq6PeVYh4lHhN4AhVYVVWjptXzptTCIBtvR2EtTFM4E/+BGTbOWIKM+tFD/6fy1UukZFMs9ia83DMCANVwCdbSXddUZT+5W0ASOg8HIDeFQ4VL4CrGa11nDYVNqzy3PkFgaUwhsYXF6tlIiyptFB5nGjPJyBn4p/yGu2dXsbsh9weV9KcWOATyI67zTwImO3tw84SdW8dESsTbhaYFBHcR9J3y9GsJ3aMwQ1Wz3bbHzKda1j14sIc5QpCm0+LE/2d4GVyM31Mw0gPVhdDwOxKpvxwRsV/h08e9dPj1UhGbIlPHjUGACi+9BqPaRPsWsEaRCICrtCeOKP+J5i1oV0tXqxIZhn/rVfkT8+DiY+5KyT3JyhhDd4Wbj7OwErGuTYz16kMBy/nEALgTiy4AAUtlgK5AyvkKhZHFudnVMv1W47/8pbq8hAuudPAIE18e9JHbSoU7qUkQ3RvyGNSpOxLrZyczXSTE7JsZl5KU6szrxP2GcpXS/ZzM5b7DraGhO7Jlrth0+AUYpMDYMxV08H66KuBaDTvIdug2JBxxe082x+954HviZngrb2gyURbvRElpk+MFw/fDkr3fiCXe4k8nxbsm1qEbIK22RZqTjQlFCBoRJ7upwU2U1aMXHW7cqscPGbFZvQpE80I6nL+170gECE7QoPhWmFS6Jyt7YAH0td/D5iqwKGZDangang3Q1x0goy/v0XX3IgcfORNFm1Xmbkv7g6dx7zimN/EHEKEzjwa08boI+lS7aKLGiWnZnmwt4NJfpD9sohSn4yxx74B2nk8cDZE2js+FLcT64GePzUuP7V5axh2sT+/h/wMWIbRbRnWtf1wr/vVdiaBdAHUJSQxnx/oPYVyJNuCHjePACUBELTGpqMQiAASf3Z1DQsxHmg1tM8ya7GuKJOeYbsksLyNZt224nzI4BUwXlwZlRCxF9f836ey+OrgeJJZpDJM2tiPNZtBRgMAyZ3VUyQCZcimIMUdcGtWCBbG5TAYdy7VHjoOVUzOIR7nXVe0jF/CjVepvPhV0FV9K0SMzHowurq1</t>
+  </si>
+  <si>
+    <t>3:50-3:55</t>
   </si>
 </sst>
 </file>
@@ -387,11 +393,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,6 +466,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mardeev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BBC62B-5D99-417A-96F0-BB130EE12480}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B3D166-0376-4D6E-920D-9B63BD0A7496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5385" yWindow="540" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Посыл / Заповедь</t>
   </si>
@@ -58,12 +58,6 @@
   </si>
   <si>
     <t>19:0-19:5</t>
-  </si>
-  <si>
-    <t>U2FsdGVkX19hfUG5rdwdPH5pcQRmqiUQspKkzM/Oq6PeVYh4lHhN4AhVYVVWjptXzptTCIBtvR2EtTFM4E/+BGTbOWIKM+tFD/6fy1UukZFMs9ia83DMCANVwCdbSXddUZT+5W0ASOg8HIDeFQ4VL4CrGa11nDYVNqzy3PkFgaUwhsYXF6tlIiyptFB5nGjPJyBn4p/yGu2dXsbsh9weV9KcWOATyI67zTwImO3tw84SdW8dESsTbhaYFBHcR9J3y9GsJ3aMwQ1Wz3bbHzKda1j14sIc5QpCm0+LE/2d4GVyM31Mw0gPVhdDwOxKpvxwRsV/h08e9dPj1UhGbIlPHjUGACi+9BqPaRPsWsEaRCICrtCeOKP+J5i1oV0tXqxIZhn/rVfkT8+DiY+5KyT3JyhhDd4Wbj7OwErGuTYz16kMBy/nEALgTiy4AAUtlgK5AyvkKhZHFudnVMv1W47/8pbq8hAuudPAIE18e9JHbSoU7qUkQ3RvyGNSpOxLrZyczXSTE7JsZl5KU6szrxP2GcpXS/ZzM5b7DraGhO7Jlrth0+AUYpMDYMxV08H66KuBaDTvIdug2JBxxe082x+954HviZngrb2gyURbvRElpk+MFw/fDkr3fiCXe4k8nxbsm1qEbIK22RZqTjQlFCBoRJ7upwU2U1aMXHW7cqscPGbFZvQpE80I6nL+170gECE7QoPhWmFS6Jyt7YAH0td/D5iqwKGZDangang3Q1x0goy/v0XX3IgcfORNFm1Xmbkv7g6dx7zimN/EHEKEzjwa08boI+lS7aKLGiWnZnmwt4NJfpD9sohSn4yxx74B2nk8cDZE2js+FLcT64GePzUuP7V5axh2sT+/h/wMWIbRbRnWtf1wr/vVdiaBdAHUJSQxnx/oPYVyJNuCHjePACUBELTGpqMQiAASf3Z1DQsxHmg1tM8ya7GuKJOeYbsksLyNZt224nzI4BUwXlwZlRCxF9f836ey+OrgeJJZpDJM2tiPNZtBRgMAyZ3VUyQCZcimIMUdcGtWCBbG5TAYdy7VHjoOVUzOIR7nXVe0jF/CjVepvPhV0FV9K0SMzHowurq1</t>
-  </si>
-  <si>
-    <t>3:50-3:55</t>
   </si>
 </sst>
 </file>
@@ -393,11 +387,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,14 +460,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/json_min.xlsx
+++ b/json_min.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sphere\Titan_3070\user Dmitry Nesterov\Downloads\Downloads_00_All\Маркус\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mardeev\Desktop\Для Посыла\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B3D166-0376-4D6E-920D-9B63BD0A7496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAED1EF-22EE-41B6-A196-BAEF769F2D53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5385" yWindow="540" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>U2FsdGVkX1+3dKVevizvc0bfl2VOldCMb0Hk3oGegSXE4NpFNBP8hoavvTsy6dw3IbPP5Fu1Mo6UcVMOuQhRIcSJ6OoQzj6mcdG3yFpQ5YEz4A6rZl3/ldKj+/aZz/pPhXN0BsDNFmwkR9WYewOsmxpyQ0NO+Rts6Qv8pCz+/t9VXo6K5aIqAy3VjjcZ26gidWy2wmFmf8ZHGO758beQ7iqrW8A+WAR5GlLvxE2Bq9TsV43LIzDur/FO8sUJnEmawmoxp0uVo3Ju7HJxipb3rO78j8uE5zsxMi33a0b0gbfMJeOTG3YvF+YlpZoVjg5Siz/TVa6pXAgLvWICmGMkblGtJrwqZ9JRrzia1s8B8DDrsZUZmqocjnwagcQoiguXDN2WDTXy1fGaK/ZgDKjYJOaIr2Yb30Rh5+AxvQDikcY5WFwDm2eQFkyaclk3QDs40KSdPc3V5jAE5mSZ6prEKnH7BkNkChfe+Dhsps3zT3TU3ZLx7V+1PD1N3I/sfx9mM6sC9B+0Rx4ARqBh2e92id0IIl6+GAHjU2bXCQGdmT5d/AZu72JFT28hix9BON3XghhxRLer++rc0xKPMjMb/82AxlkGEVZwPb2eTXiXT6s4gHjfTYu8Bb4V42DrjR7MnBnn7SCOeoTRWFfmSbFIspK+H8BEmDLeEBToVcAol0dI0C4eIPOiwJu4WYO8nCLIwbYKupRZzHdixPYFwCrpyg2Nd6gpiTwBhPxEyjUCRs/EriGP0J+PEffgVA3OuBtbt8tHqzIOeEX8QSEpQp5pseQTy27DE9mAeokjoboXJtwjy8y39hnrnZt71jd059MKjzSvbdfrCWPI8xu0lpuwH/5n33+AbNiNVgbDOLbAkIFgKepPtn9w6pB4Y3CWsHHRfEB+ZmTIUrETSOl6RakN2j1k7g1bgzi553oKQXe0P3haKIWXN8B8iBJq4zmJZNsu3mnypa1HtKQp6v0IXQ7GQgs6sd8x8aAt8oL+Ab3Rh7znNcIt/dWsE6Z9O/PDRiOUYQpAnraYQhpYzt7XAw8eC32dIkYL1g7eikM2ttaaqs1y3J6yMVoDWLxvvAELcREUxqDhZRfECaNjs9jW8RiSw4SrpnO1LSxlXocRLfydt3m4F5/vT1P71gcOEWz/zeYFN0uAMoeStJe504O6+4fA78hHH8H0dMIszQ9YvsokUCMjpKVm2oojbskrZ3fuwEgkwbKTZFPYzKm+WDcisNVlITPVmMD6GzZWTZr4ANNE96BFfRWKLtZiSUxjeaAQZ793M2JokmgxxbwmZDrSQIbKI6q0QfbhRQv68SOmsiNKU3g=</t>
   </si>
   <si>
-    <t>U2FsdGVkX18NNReb+w/Km5E3ZFDJrUDqZeyaVFXtOwRJr0BfDYp3DnMkaKw/REeCtlIlYSNU4vNPUp138+0Ja0vm7hYajALWhD2jbIdlRnv41ER5TH8hlzWi7Z9FpBsCdgx0NMmIYfz+J4v8OC3s7qFU46wrQgJdwNMF1dITDnre2jl7HGP74NDp4Ma7HsqJbPBB9jvBI/DAgRFob+El5OLAPV42wnWzOsBOOQFfeOKaluOHPdAF1VKV/3cSoruA14wA5vGree7DZzvNNsbAUnlgsGAyNvA+moJgvsocnsMesdDYFNWFlMmk0JU8z1zD/snvmFQGa2o32iQARsdd0NcclEYmgCJ4SQS9QpiCqkc=</t>
-  </si>
-  <si>
     <t>10:55-11:0</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>19:0-19:5</t>
+  </si>
+  <si>
+    <t>U2FsdGVkX18DSKJc0Kl1l/UG7T28SP+LJTvsAV64cch88zuXj9bUAIok46EqODZ9/1/Pln5W+Up73kvNHx/VZLqu7srFFie7z8qwj7rOwy0Rwc1SKE0ZicniYy+Ut7uDoPVv16Mvj1NhaU/vP9p/ueqnmG4oBPtWG6Br4PS8/nmuVB0KtqVQ0q9FG7ylIfYzlwoerlZV5P4p3Mm3F9uTlQHWEEd646m1ZTt3kBNsikyCPWl4gNMw04bHyH5Kf0lQVteM9OtW+rpMwDWb/wzzRHg81dG0gsVsbI6azzIAIRsn2Kswxwm/Bcg9T3xvlJyDUtR/uoDqKAwrI9guwi/Zb9MUzIQaBUoTOWRDIxJNOX8=</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +422,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -433,15 +433,15 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -449,15 +449,15 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
